--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2116494409693337</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.670184492385954</v>
+        <v>-1.67151060349565</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2058461714957405</v>
+        <v>-0.2041178985005523</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3144346026360323</v>
+        <v>-0.3120735739540813</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2308606963550711</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811922553230399</v>
+        <v>-1.811486549933798</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1914029720386854</v>
+        <v>-0.1898494151659616</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3162762050079541</v>
+        <v>-0.3138789738862132</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2557193323677314</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.991418184756605</v>
+        <v>-1.989294045952409</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2661421219754059</v>
+        <v>-0.2634001806661001</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3479171373843405</v>
+        <v>-0.3451830661706413</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2723759733376935</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.019411327819377</v>
+        <v>-2.017519356835573</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2397300811199804</v>
+        <v>-0.2370747108623461</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3520221792526927</v>
+        <v>-0.3496249481309518</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2728627133875777</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.957047116214322</v>
+        <v>-1.954810435042954</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1924528427925929</v>
+        <v>-0.1909307663022952</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3656752211108549</v>
+        <v>-0.3632339174537175</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2562734791062153</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.710238556965692</v>
+        <v>-1.708288347274401</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.168038232202098</v>
+        <v>-0.1648823238638901</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3831247970895943</v>
+        <v>-0.3804521126216258</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2301528321552117</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.488216863829745</v>
+        <v>-1.483523925819587</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05010484953864392</v>
+        <v>-0.04699458775495376</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3664213061743514</v>
+        <v>-0.3638005643373858</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1945627048283059</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.205783529808717</v>
+        <v>-1.199873875017794</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001140262713222123</v>
+        <v>0.002443778825979543</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3178124476703436</v>
+        <v>-0.316427310843599</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1422573377971274</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.024596614736673</v>
+        <v>-1.015989091171841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1455866517361854</v>
+        <v>0.1468647552626816</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.312166441082238</v>
+        <v>-0.3096920830235533</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06435553669009271</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7951982809887504</v>
+        <v>-0.7850285434460268</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1725936718194626</v>
+        <v>0.1716996289585638</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.298729039843694</v>
+        <v>-0.2957163672455245</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05091515315335043</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5696775433461518</v>
+        <v>-0.5579448048159765</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1666391574835821</v>
+        <v>0.1645378419566457</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2517870675891437</v>
+        <v>-0.2491458635036011</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2121922058679404</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.364162588735285</v>
+        <v>-0.3482413853233285</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01109908169369157</v>
+        <v>-0.0125345871323178</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2007038510264511</v>
+        <v>-0.198525408562571</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4199079507921323</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05578863258566071</v>
+        <v>-0.04029713639381934</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1282800832171639</v>
+        <v>-0.130861474576097</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09094749769815416</v>
+        <v>-0.08922709479857252</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6665585256927258</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3380451177358631</v>
+        <v>0.3563997547093504</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4053845755030286</v>
+        <v>-0.4071994195498884</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03955285362976456</v>
+        <v>0.03966618300649821</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9340351409582109</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6945305423471642</v>
+        <v>0.7151549148935671</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6095946682623373</v>
+        <v>-0.6113969201562266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07941960993406838</v>
+        <v>0.08086455948742241</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.201196170549739</v>
       </c>
       <c r="E17" t="n">
-        <v>1.187642400706486</v>
+        <v>1.20836436243841</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7213012312819258</v>
+        <v>-0.7259256994603073</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1413777246058273</v>
+        <v>0.1425157404305278</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.460362291499149</v>
       </c>
       <c r="E18" t="n">
-        <v>1.540760998417325</v>
+        <v>1.561391667040213</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9151613613091217</v>
+        <v>-0.9194867658544561</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1933691502015104</v>
+        <v>0.1957899916100708</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.706884429304394</v>
       </c>
       <c r="E19" t="n">
-        <v>1.906939232777596</v>
+        <v>1.926745115380922</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.021075533962324</v>
+        <v>-1.027362166332799</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2580755022590603</v>
+        <v>0.2604727333808013</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.931141913472378</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219611835147492</v>
+        <v>2.240887851610114</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.236135340524758</v>
+        <v>-1.243630819580392</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3279131566520506</v>
+        <v>0.3315869172811663</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.12410707711712</v>
       </c>
       <c r="E21" t="n">
-        <v>2.480969840143865</v>
+        <v>2.501573750441691</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.267049076067104</v>
+        <v>-1.277737452910296</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4540786593199072</v>
+        <v>0.4567434736922693</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.279727124744815</v>
       </c>
       <c r="E22" t="n">
-        <v>2.702837279405925</v>
+        <v>2.723301102001955</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.376681868894378</v>
+        <v>-1.389166988564535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4538992211400789</v>
+        <v>0.457831120905088</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.399744850162793</v>
       </c>
       <c r="E23" t="n">
-        <v>2.778484638375636</v>
+        <v>2.801139495588516</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.485695285197421</v>
+        <v>-1.498535346179432</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5522801382787358</v>
+        <v>0.5558673278561801</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.49041215745573</v>
       </c>
       <c r="E24" t="n">
-        <v>2.905001147307543</v>
+        <v>2.925597187509762</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.630564857083694</v>
+        <v>-1.641019492087373</v>
       </c>
       <c r="G24" t="n">
-        <v>0.593007883042391</v>
+        <v>0.596499057453436</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.555442440920601</v>
       </c>
       <c r="E25" t="n">
-        <v>2.914657754616722</v>
+        <v>2.934411694589046</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.57713241698246</v>
+        <v>-1.590579262335732</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6468015605319634</v>
+        <v>0.6508892881899813</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.597580732603009</v>
       </c>
       <c r="E26" t="n">
-        <v>2.900804812330155</v>
+        <v>2.921093918803721</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.490836031647589</v>
+        <v>-1.507517486295134</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5867369908631291</v>
+        <v>0.5920099549194865</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.617682863510877</v>
       </c>
       <c r="E27" t="n">
-        <v>2.974583810602882</v>
+        <v>2.992093199308231</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.534803107762882</v>
+        <v>-1.550772318758038</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6168589947874604</v>
+        <v>0.6215542938263003</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.612027333635916</v>
       </c>
       <c r="E28" t="n">
-        <v>2.914738029591908</v>
+        <v>2.9320805722704</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.488555277940825</v>
+        <v>-1.504124688079171</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6347398520054363</v>
+        <v>0.639554776497495</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.577681405690369</v>
       </c>
       <c r="E29" t="n">
-        <v>2.779835146781712</v>
+        <v>2.799436406899269</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.645582573520024</v>
+        <v>-1.658114126754259</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6046084039663772</v>
+        <v>0.6090896364047202</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.513383128278872</v>
       </c>
       <c r="E30" t="n">
-        <v>2.738109473895152</v>
+        <v>2.754417886010948</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.630843458468164</v>
+        <v>-1.642789476589276</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5556154847967719</v>
+        <v>0.560902615025221</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.420137664662559</v>
       </c>
       <c r="E31" t="n">
-        <v>2.624836761849869</v>
+        <v>2.640213354645855</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.671202095747875</v>
+        <v>-1.681182950996042</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5498514267745689</v>
+        <v>0.5538982299354329</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.303574963016551</v>
       </c>
       <c r="E32" t="n">
-        <v>2.585360362287648</v>
+        <v>2.600563812980291</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.717953611688748</v>
+        <v>-1.726672890611193</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5410857142880453</v>
+        <v>0.5449153028101699</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.1694289133241</v>
       </c>
       <c r="E33" t="n">
-        <v>2.409935931218686</v>
+        <v>2.4244499615362</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.711018483440297</v>
+        <v>-1.719184494641605</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5372813100718615</v>
+        <v>0.5412793186399653</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.021876306917312</v>
       </c>
       <c r="E34" t="n">
-        <v>2.236384582904072</v>
+        <v>2.251828858522275</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.701855331125645</v>
+        <v>-1.710145689837536</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4785389164649199</v>
+        <v>0.4817357493002816</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.866932709650146</v>
       </c>
       <c r="E35" t="n">
-        <v>2.083615009047992</v>
+        <v>2.099216686578324</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.74352670035252</v>
+        <v>-1.749500102917856</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4157481456779928</v>
+        <v>0.4187985947350736</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.709511910373346</v>
       </c>
       <c r="E36" t="n">
-        <v>1.933346551575657</v>
+        <v>1.948538984134452</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.609351014376364</v>
+        <v>-1.617557950074826</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4187372079893428</v>
+        <v>0.4214822973368912</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.552322975491059</v>
       </c>
       <c r="E37" t="n">
-        <v>1.732825959636678</v>
+        <v>1.749337420219122</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.594795272552136</v>
+        <v>-1.603030540594781</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3354432641283531</v>
+        <v>0.3406296571330388</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.399107397474348</v>
       </c>
       <c r="E38" t="n">
-        <v>1.614988592139623</v>
+        <v>1.630955442106097</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.491583690730207</v>
+        <v>-1.500623282543837</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2886807300536309</v>
+        <v>0.2935538932531778</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.251932840191761</v>
       </c>
       <c r="E39" t="n">
-        <v>1.442038519129346</v>
+        <v>1.45865858703116</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.452643244678789</v>
+        <v>-1.462535167846603</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2747364946580281</v>
+        <v>0.2790398629356642</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.111515379032496</v>
       </c>
       <c r="E40" t="n">
-        <v>1.211480920298585</v>
+        <v>1.229366499573925</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.526619782351239</v>
+        <v>-1.534005080068382</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2970135872817968</v>
+        <v>0.3000120937078746</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9798440612929625</v>
       </c>
       <c r="E41" t="n">
-        <v>1.130027004790396</v>
+        <v>1.145973392508293</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.466277398307495</v>
+        <v>-1.473946019466472</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1974065092476466</v>
+        <v>0.2005718617005823</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8570316130125565</v>
       </c>
       <c r="E42" t="n">
-        <v>0.993940459600981</v>
+        <v>1.008983360343252</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.347512933547995</v>
+        <v>-1.357699198291492</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1575885475361031</v>
+        <v>0.1611977733812456</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7421274208094697</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9075645863004844</v>
+        <v>0.9217527946598888</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.284099638198593</v>
+        <v>-1.293587038452233</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1167695096634124</v>
+        <v>0.1203252188584307</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6352726759744532</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7358831727019758</v>
+        <v>0.7510819013372553</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.210290733562561</v>
+        <v>-1.220870503086384</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1014417114601863</v>
+        <v>0.1049675142918998</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5358936597760513</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5779539641662713</v>
+        <v>0.5924805866367554</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.180028641936434</v>
+        <v>-1.187989243642413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08709610118865184</v>
+        <v>0.08979396996256121</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4435683530991014</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4061844054969699</v>
+        <v>0.4211785116464802</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.038803711325533</v>
+        <v>-1.049095435350158</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01244667034184541</v>
+        <v>0.01555221006817167</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3592622470978082</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3298885506492829</v>
+        <v>0.343451873417531</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.060975344668175</v>
+        <v>-1.067890010668049</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02634660492173134</v>
+        <v>-0.02339059701192864</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2821560506545888</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1948896526726868</v>
+        <v>0.2081979843432842</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9328100507067058</v>
+        <v>-0.9422218980425232</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01338298343869887</v>
+        <v>-0.0129816085627672</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2103414522092004</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1918407776347274</v>
+        <v>0.204072480226355</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9044981687718703</v>
+        <v>-0.9136479419239911</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0953878056393434</v>
+        <v>-0.09229958012335146</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.142187138951528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01324942009370876</v>
+        <v>0.02666478506455453</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8452662552182041</v>
+        <v>-0.8543365404046993</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1030328165115008</v>
+        <v>-0.1002515247241625</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07556590230965872</v>
       </c>
       <c r="E51" t="n">
-        <v>0.006959639684991217</v>
+        <v>0.01819184013459292</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.940093037180964</v>
+        <v>-0.9458437160406361</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1462947320604502</v>
+        <v>-0.1431703041046684</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.009033491845805562</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04356322607051826</v>
+        <v>-0.03337932235570281</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9019616369578942</v>
+        <v>-0.9080948024640423</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1547897132581101</v>
+        <v>-0.1522728566831503</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05913963681587338</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1088960377383459</v>
+        <v>-0.09935433382502114</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8568825163334032</v>
+        <v>-0.8634249268110895</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1912581622795257</v>
+        <v>-0.1885728856585867</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1316957764612901</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2123626106579253</v>
+        <v>-0.2021771329239886</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8626575924894554</v>
+        <v>-0.8689749182327957</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2424783185057714</v>
+        <v>-0.2394939782517853</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2105000946153057</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2946617744342531</v>
+        <v>-0.2841441786657219</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8436277013129301</v>
+        <v>-0.8507847662574843</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2323022848865624</v>
+        <v>-0.2313940758535719</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2967214723274239</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3267875047000001</v>
+        <v>-0.3179273510661986</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8294945836227712</v>
+        <v>-0.8363211045518523</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2357478127430896</v>
+        <v>-0.2348710840925252</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3906264315339673</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3823094551847606</v>
+        <v>-0.3729896879675392</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8301533106250355</v>
+        <v>-0.8372859782732096</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3499208637257563</v>
+        <v>-0.3476196477704147</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4912297251231071</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.401879234919892</v>
+        <v>-0.3934912870224807</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7340649523365531</v>
+        <v>-0.7422954983218344</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3594893259641432</v>
+        <v>-0.3569535811597278</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5974060214198583</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.515299904762577</v>
+        <v>-0.5066396515571806</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7314457845187088</v>
+        <v>-0.7399596539458242</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4128233898702957</v>
+        <v>-0.4098437716736735</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.7068162770728174</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5321182990736748</v>
+        <v>-0.5243410705953282</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7202371943559266</v>
+        <v>-0.7292862302842842</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4151025695579391</v>
+        <v>-0.4128989427881182</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.8157314142326302</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.545143307302438</v>
+        <v>-0.5393540649742941</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7325475979036192</v>
+        <v>-0.7416045039275834</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4556068036063697</v>
+        <v>-0.4534913219073416</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.920833834283164</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6542322765233035</v>
+        <v>-0.6469020694754062</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7724710188962899</v>
+        <v>-0.7821118860142566</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4892546103624145</v>
+        <v>-0.4870793159367769</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.018834884152807</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7340429160688549</v>
+        <v>-0.7271376941837088</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7870338438065638</v>
+        <v>-0.7967172094408057</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5496261137599024</v>
+        <v>-0.5463175255669284</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.107061033423769</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7627435807266516</v>
+        <v>-0.7560256671169403</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8350988787041623</v>
+        <v>-0.8434396060279347</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5422455381001234</v>
+        <v>-0.5398782133416873</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.184035491818455</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8198663086577749</v>
+        <v>-0.8126935035220076</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8484017013078351</v>
+        <v>-0.8568596930561443</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5797795980666597</v>
+        <v>-0.5773194061800667</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.248340923333236</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8482616136060392</v>
+        <v>-0.8404686449364795</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.953258133111523</v>
+        <v>-0.9607992587216746</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6642650744024741</v>
+        <v>-0.6600199448323262</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.298921704611712</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9761349270205072</v>
+        <v>-0.9676950364920929</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9173421648016838</v>
+        <v>-0.9252539719149018</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6632104815912027</v>
+        <v>-0.6596280140711223</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.336294084708985</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.024839013681354</v>
+        <v>-1.017188493742272</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.001451450567507</v>
+        <v>-1.008597497378213</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7245122302893792</v>
+        <v>-0.7196437891471962</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.360210665085612</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.056308377973518</v>
+        <v>-1.047268786159888</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9667073394934766</v>
+        <v>-0.9748560364844504</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7536252879569567</v>
+        <v>-0.7489457291093298</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.369609248878982</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.207407130532339</v>
+        <v>-1.195560275615869</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9638072092624802</v>
+        <v>-0.971066585449919</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7758614560835716</v>
+        <v>-0.770697099346584</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.365404563118494</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.211500367257281</v>
+        <v>-1.199272599713457</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.00578708623713</v>
+        <v>-1.013100766084254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8053806106844447</v>
+        <v>-0.7995189634767209</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.349080916800268</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.188670793921936</v>
+        <v>-1.175990495880737</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.095102440246656</v>
+        <v>-1.101337916995689</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.76832033047342</v>
+        <v>-0.7631150492392785</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.322417922932053</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.145403369306062</v>
+        <v>-1.132228829260775</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.163245663055566</v>
+        <v>-1.167588381811234</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7582403120206104</v>
+        <v>-0.7527957798800313</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.287886879237786</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.148314517670908</v>
+        <v>-1.134165659789536</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.156187761315653</v>
+        <v>-1.160814590522717</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7651471079248777</v>
+        <v>-0.7579931910185661</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.2463239057064</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.070694912742207</v>
+        <v>-1.056424855388495</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.186626143083366</v>
+        <v>-1.192494873377136</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7799302955121338</v>
+        <v>-0.7720696440203582</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.198583413202827</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9808750856043041</v>
+        <v>-0.9662618920821486</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.268895400496389</v>
+        <v>-1.273439593699584</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7223794343800167</v>
+        <v>-0.7160298412446898</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.145489143626276</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8704615792928642</v>
+        <v>-0.8562285113885028</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.216912632005873</v>
+        <v>-1.222365034242059</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.73389181023321</v>
+        <v>-0.7255353427182246</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.086823987509584</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7797949298677019</v>
+        <v>-0.7646638840546385</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.218901405165637</v>
+        <v>-1.224364825535671</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6936583074736431</v>
+        <v>-0.6856276619167671</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.022562652260216</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6586159197761259</v>
+        <v>-0.6432409009992608</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.283737613800694</v>
+        <v>-1.28800477963854</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6705123562949166</v>
+        <v>-0.6624234720305523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9528384836579719</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4836511022905841</v>
+        <v>-0.4674874999339473</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.199072699285051</v>
+        <v>-1.204945364626624</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6872929741471031</v>
+        <v>-0.6786217028078576</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8764621862442824</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2600790003201557</v>
+        <v>-0.246292166836683</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.213371875992507</v>
+        <v>-1.218515770480918</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6190466530857479</v>
+        <v>-0.6110868383893303</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7939535771037587</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.09152044065830761</v>
+        <v>-0.07829710602026053</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221416687721475</v>
+        <v>-1.22763012820281</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4859271339399849</v>
+        <v>-0.4801268734779918</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.7068991690548786</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09816145561139566</v>
+        <v>0.1122442046896729</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.137412861236779</v>
+        <v>-1.143801017840578</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4441762767474841</v>
+        <v>-0.4383162035588817</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6163081916463126</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2471880119970235</v>
+        <v>0.2613352958592741</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.110431812469003</v>
+        <v>-1.117758871478658</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3521748591074589</v>
+        <v>-0.3468420823244922</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5238624324862673</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4573274347862718</v>
+        <v>0.4686650945170007</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.089282504545646</v>
+        <v>-1.095436132300371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2767777691780346</v>
+        <v>-0.273387331990753</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4301659114937081</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6154187672914703</v>
+        <v>0.6267391128118648</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9812394710308853</v>
+        <v>-0.9883146869811319</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2184729528868146</v>
+        <v>-0.2142577296799713</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3356350525944955</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8420350222424943</v>
+        <v>0.851126556687127</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9349105792240815</v>
+        <v>-0.9403511763168573</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1606922849629877</v>
+        <v>-0.1564062308956859</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.242617896325305</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9501811540097006</v>
+        <v>0.9590885282171412</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7604518088860378</v>
+        <v>-0.7665023383883176</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09712080069189546</v>
+        <v>-0.09394285608598937</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1559276951257342</v>
       </c>
       <c r="E89" t="n">
-        <v>1.195260653253582</v>
+        <v>1.203048899865777</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6028043497730461</v>
+        <v>-0.6087226616691367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0263657214315074</v>
+        <v>0.02765956514921656</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0793797611586632</v>
       </c>
       <c r="E90" t="n">
-        <v>1.365506561413464</v>
+        <v>1.371470519864072</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5294818170454962</v>
+        <v>-0.5349594035876226</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04774247511789204</v>
+        <v>0.04910714969605973</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01645608631508505</v>
       </c>
       <c r="E91" t="n">
-        <v>1.44698093917023</v>
+        <v>1.451710866629739</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3117871024740045</v>
+        <v>-0.3181697500108788</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0776409683269986</v>
+        <v>0.07795892018950135</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0295936360016146</v>
       </c>
       <c r="E92" t="n">
-        <v>1.586878184652314</v>
+        <v>1.589146346206108</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2217327464870283</v>
+        <v>-0.2265177646157824</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09072264124412861</v>
+        <v>0.09141048760013702</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05631179309662263</v>
       </c>
       <c r="E93" t="n">
-        <v>1.598253620841954</v>
+        <v>1.599945691397352</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01646806091644822</v>
+        <v>-0.0223722066404471</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1173109722411398</v>
+        <v>0.1171850507114358</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06299800356862359</v>
       </c>
       <c r="E94" t="n">
-        <v>1.547946395706063</v>
+        <v>1.550054007309484</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1414737397722267</v>
+        <v>0.1360622620331949</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1311938208910119</v>
+        <v>0.130095155544344</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05105718258681212</v>
       </c>
       <c r="E95" t="n">
-        <v>1.541264684536141</v>
+        <v>1.543022863894634</v>
       </c>
       <c r="F95" t="n">
-        <v>0.19522019668816</v>
+        <v>0.1911592273552042</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1426778644000217</v>
+        <v>0.1414579995810137</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0241477623591438</v>
       </c>
       <c r="E96" t="n">
-        <v>1.510284840190701</v>
+        <v>1.509770135938036</v>
       </c>
       <c r="F96" t="n">
-        <v>0.285718426067343</v>
+        <v>0.2818636532392776</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05211510023686535</v>
+        <v>0.05249916090246272</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0117411659538375</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352621640886497</v>
+        <v>1.352251746392991</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3020284122022607</v>
+        <v>0.2985986245369466</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03135063998866668</v>
+        <v>0.03132230764448326</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0504297702757241</v>
       </c>
       <c r="E98" t="n">
-        <v>1.290048084738309</v>
+        <v>1.288780999345662</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2554547604220947</v>
+        <v>0.2511545401827012</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02802001552799442</v>
+        <v>0.02747383089290308</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08384602519218112</v>
       </c>
       <c r="E99" t="n">
-        <v>1.186068381585186</v>
+        <v>1.184129190027743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2283580212489034</v>
+        <v>0.2255216387923195</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06108071315179407</v>
+        <v>0.06012843158340715</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1098019896913931</v>
       </c>
       <c r="E100" t="n">
-        <v>1.069446156849775</v>
+        <v>1.067538445674759</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2250809134383553</v>
+        <v>0.2211915121896213</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0247696660425085</v>
+        <v>0.02429746030611829</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1286611635519999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9082854870580401</v>
+        <v>0.9067272081279525</v>
       </c>
       <c r="F101" t="n">
-        <v>0.191315055248213</v>
+        <v>0.1885337634608747</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01475395409335177</v>
+        <v>-0.01472089969180446</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1492166455237826</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7384976184624563</v>
+        <v>0.7372604394331139</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1546766121616969</v>
+        <v>0.1531498136140352</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03789360919559318</v>
+        <v>-0.0379471258457174</v>
       </c>
     </row>
   </sheetData>
